--- a/Collections/Kazakhstan/#Kazakhstan#Commercial#[2004-present]#circulation_quality.xlsx
+++ b/Collections/Kazakhstan/#Kazakhstan#Commercial#[2004-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Kazakhstan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E82EA-CE18-4498-A5BA-0E0E223802C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA862AF-20CD-4CD5-B714-B1FF179C84C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="100тенге" sheetId="25" r:id="rId1"/>
     <sheet name="Links" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'100тенге'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -88,12 +91,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -407,6 +404,12 @@
   </si>
   <si>
     <t>125th Anniversary - Birth of Temirbek Jürgenov</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Composition</t>
   </si>
 </sst>
 </file>
@@ -473,6 +476,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -711,24 +716,24 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -736,647 +741,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
@@ -1385,6 +750,486 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1407,9 +1252,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="81" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1715,55 +1560,54 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L70" sqref="L70"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2012,16 +1856,16 @@
         <v>2003</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2036,16 +1880,16 @@
         <v>2003</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2060,16 +1904,16 @@
         <v>2003</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2084,16 +1928,16 @@
         <v>2003</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2132,14 +1976,14 @@
         <v>2005</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2394,22 +2238,22 @@
         <v>2016</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" s="10" t="str">
-        <f>IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G29:G38" si="6">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2418,22 +2262,22 @@
         <v>2016</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
       </c>
       <c r="G30" s="10" t="str">
-        <f>IF(OR(AND(F30&gt;1,F30&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2442,22 +2286,22 @@
         <v>2016</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31" s="10" t="str">
-        <f>IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2466,20 +2310,20 @@
         <v>2016</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" s="10" t="str">
-        <f>IF(OR(AND(F32&gt;1,F32&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2488,20 +2332,20 @@
         <v>2016</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33" s="10" t="str">
-        <f>IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2510,20 +2354,20 @@
         <v>2016</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34" s="10" t="str">
-        <f>IF(OR(AND(F34&gt;1,F34&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2532,22 +2376,22 @@
         <v>2017</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
       </c>
       <c r="G35" s="10" t="str">
-        <f>IF(OR(AND(F35&gt;1,F35&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2556,22 +2400,22 @@
         <v>2017</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
       </c>
       <c r="G36" s="10" t="str">
-        <f>IF(OR(AND(F36&gt;1,F36&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2580,22 +2424,22 @@
         <v>2017</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37" s="10" t="str">
-        <f>IF(OR(AND(F37&gt;1,F37&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2604,20 +2448,20 @@
         <v>2017</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="10" t="str">
-        <f>IF(OR(AND(F38&gt;1,F38&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2626,16 +2470,16 @@
         <v>2018</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>0</v>
@@ -2650,22 +2494,22 @@
         <v>2018</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G40" s="10" t="str">
-        <f t="shared" ref="G40:G42" si="6">IF(OR(AND(F40&gt;1,F40&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G40:G42" si="7">IF(OR(AND(F40&gt;1,F40&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2674,22 +2518,22 @@
         <v>2018</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G41" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2698,20 +2542,20 @@
         <v>2018</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2720,14 +2564,14 @@
         <v>2018</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -2742,22 +2586,22 @@
         <v>2019</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="10" t="str">
-        <f t="shared" ref="G44:G50" si="7">IF(OR(AND(F44&gt;1,F44&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G44:G50" si="8">IF(OR(AND(F44&gt;1,F44&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2766,22 +2610,22 @@
         <v>2019</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2790,22 +2634,22 @@
         <v>2019</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G46" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2814,20 +2658,20 @@
         <v>2019</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G47" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2836,20 +2680,20 @@
         <v>2019</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G48" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2858,20 +2702,20 @@
         <v>2019</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G49" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2880,20 +2724,20 @@
         <v>2019</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G50" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2902,22 +2746,22 @@
         <v>2020</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G51" s="10" t="str">
-        <f t="shared" ref="G51" si="8">IF(OR(AND(F51&gt;1,F51&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G51" si="9">IF(OR(AND(F51&gt;1,F51&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2926,22 +2770,22 @@
         <v>2020</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
       </c>
       <c r="G52" s="10" t="str">
-        <f>IF(OR(AND(F52&gt;1,F52&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G52:G60" si="10">IF(OR(AND(F52&gt;1,F52&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2950,22 +2794,22 @@
         <v>2020</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2">
         <v>0</v>
       </c>
       <c r="G53" s="10" t="str">
-        <f>IF(OR(AND(F53&gt;1,F53&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -2974,22 +2818,22 @@
         <v>2020</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="F54" s="2">
         <v>0</v>
       </c>
       <c r="G54" s="10" t="str">
-        <f>IF(OR(AND(F54&gt;1,F54&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -2998,22 +2842,22 @@
         <v>2020</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="F55" s="2">
         <v>0</v>
       </c>
       <c r="G55" s="10" t="str">
-        <f>IF(OR(AND(F55&gt;1,F55&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3022,22 +2866,22 @@
         <v>2020</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="F56" s="2">
         <v>0</v>
       </c>
       <c r="G56" s="10" t="str">
-        <f>IF(OR(AND(F56&gt;1,F56&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3046,22 +2890,22 @@
         <v>2020</v>
       </c>
       <c r="B57" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="E57" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57" s="10" t="str">
-        <f>IF(OR(AND(F57&gt;1,F57&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3070,22 +2914,22 @@
         <v>2020</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58" s="10" t="str">
-        <f>IF(OR(AND(F58&gt;1,F58&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3094,22 +2938,22 @@
         <v>2020</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G59" s="10" t="str">
-        <f>IF(OR(AND(F59&gt;1,F59&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3118,22 +2962,22 @@
         <v>2020</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
       </c>
       <c r="G60" s="10" t="str">
-        <f>IF(OR(AND(F60&gt;1,F60&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3142,22 +2986,22 @@
         <v>2020</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G61" s="10" t="str">
-        <f t="shared" ref="G61" si="9">IF(OR(AND(F61&gt;1,F61&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G61" si="11">IF(OR(AND(F61&gt;1,F61&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3166,16 +3010,16 @@
         <v>2020</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -3190,14 +3034,14 @@
         <v>2020</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
@@ -3212,14 +3056,14 @@
         <v>2020</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2">
         <v>0</v>
@@ -3234,14 +3078,14 @@
         <v>2020</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
@@ -3256,14 +3100,14 @@
         <v>2020</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
@@ -3278,20 +3122,20 @@
         <v>2020</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G67" s="10" t="str">
-        <f t="shared" ref="G67:G69" si="10">IF(OR(AND(F67&gt;1,F67&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G67:G69" si="12">IF(OR(AND(F67&gt;1,F67&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3300,20 +3144,20 @@
         <v>2020</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G68" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -3322,22 +3166,22 @@
         <v>2021</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G69" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -3346,16 +3190,16 @@
         <v>2021</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
@@ -3370,16 +3214,16 @@
         <v>2021</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
@@ -3394,16 +3238,16 @@
         <v>2021</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>0</v>
@@ -3418,16 +3262,16 @@
         <v>2021</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
@@ -3442,22 +3286,22 @@
         <v>2021</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G74" s="10" t="str">
-        <f t="shared" ref="G74" si="11">IF(OR(AND(F74&gt;1,F74&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G74" si="13">IF(OR(AND(F74&gt;1,F74&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3466,20 +3310,20 @@
         <v>2021</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G75" s="10" t="str">
-        <f t="shared" ref="G75" si="12">IF(OR(AND(F75&gt;1,F75&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G75" si="14">IF(OR(AND(F75&gt;1,F75&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3488,14 +3332,14 @@
         <v>2021</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
@@ -3510,20 +3354,20 @@
         <v>2021</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G77" s="10" t="str">
-        <f t="shared" ref="G77:G79" si="13">IF(OR(AND(F77&gt;1,F77&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G77:G79" si="15">IF(OR(AND(F77&gt;1,F77&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3532,20 +3376,20 @@
         <v>2021</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G78" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3554,20 +3398,20 @@
         <v>2022</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G79" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3576,14 +3420,14 @@
         <v>2022</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2">
         <v>0</v>
@@ -3598,16 +3442,16 @@
         <v>2022</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -3622,22 +3466,22 @@
         <v>2022</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
       </c>
       <c r="G82" s="10" t="str">
-        <f t="shared" ref="G82:G88" si="14">IF(OR(AND(F82&gt;1,F82&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G82:G88" si="16">IF(OR(AND(F82&gt;1,F82&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3646,22 +3490,22 @@
         <v>2022</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
       </c>
       <c r="G83" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -3670,22 +3514,22 @@
         <v>2022</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
       </c>
       <c r="G84" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -3694,22 +3538,22 @@
         <v>2022</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -3718,22 +3562,22 @@
         <v>2022</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G86" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -3742,20 +3586,20 @@
         <v>2022</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G87" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -3764,20 +3608,20 @@
         <v>2022</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G88" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -3786,20 +3630,20 @@
         <v>2022</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G89" s="10" t="str">
-        <f t="shared" ref="G89:G92" si="15">IF(OR(AND(F89&gt;1,F89&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G89:G92" si="17">IF(OR(AND(F89&gt;1,F89&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3808,20 +3652,20 @@
         <v>2022</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G90" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3830,20 +3674,20 @@
         <v>2023</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G91" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3852,27 +3696,27 @@
         <v>2023</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G92" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{1F9C7DAA-01C4-4861-B3EA-F5AF89B42AE1}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3889,7 +3733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11 F17 F19:F28 F39">
-    <cfRule type="containsText" dxfId="79" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3906,7 +3750,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67 F77 F79 F89 F91">
-    <cfRule type="containsText" dxfId="78" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3923,7 +3767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="77" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3940,7 +3784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="76" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3957,7 +3801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="75" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3974,7 +3818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="74" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3991,7 +3835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="73" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4008,7 +3852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="72" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4025,7 +3869,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsText" dxfId="71" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4042,7 +3886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="70" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4059,7 +3903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F82 F84">
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4076,7 +3920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="68" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4093,7 +3937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="67" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4110,7 +3954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="66" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4127,7 +3971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="64" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4144,7 +3988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4161,7 +4005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="62" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4178,7 +4022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="60" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4195,7 +4039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="59" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4212,7 +4056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="58" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4229,7 +4073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81 F83">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4246,7 +4090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="56" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4263,7 +4107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4280,7 +4124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F41">
-    <cfRule type="containsText" dxfId="54" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4297,7 +4141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="53" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4314,7 +4158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="52" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4331,7 +4175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4348,7 +4192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4365,7 +4209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4382,7 +4226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4399,7 +4243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="44" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4416,7 +4260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F46">
-    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4433,7 +4277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="41" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4450,7 +4294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="40" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4467,7 +4311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4484,7 +4328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4501,7 +4345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F63))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4518,7 +4362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4535,7 +4379,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F68))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4552,7 +4396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4569,7 +4413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4586,7 +4430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4603,7 +4447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4620,7 +4464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4637,7 +4481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4654,7 +4498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4671,7 +4515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4688,7 +4532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4705,7 +4549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F61))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4722,7 +4566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4739,7 +4583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4756,7 +4600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4773,7 +4617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4790,7 +4634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78 F90 F92">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4807,7 +4651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F69))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4824,7 +4668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4841,7 +4685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4858,7 +4702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4875,7 +4719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4922,13 +4766,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4936,10 +4780,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4947,10 +4791,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4958,10 +4802,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4969,10 +4813,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4980,7 +4824,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9"/>
     </row>

--- a/Collections/Kazakhstan/#Kazakhstan#Commercial#[2004-present]#circulation_quality.xlsx
+++ b/Collections/Kazakhstan/#Kazakhstan#Commercial#[2004-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Kazakhstan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA862AF-20CD-4CD5-B714-B1FF179C84C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8AC727-60F1-49C3-851D-0EBE43F4501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,6 +743,486 @@
   </cellStyles>
   <dxfs count="63">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -750,486 +1230,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1252,9 +1252,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="61" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1557,13 +1557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9C7DAA-01C4-4861-B3EA-F5AF89B42AE1}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B1:D2"/>
+      <selection pane="bottomRight" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3022,11 +3022,11 @@
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" s="10" t="str">
         <f>IF(OR(AND(F62&gt;1,F62&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3226,7 +3226,7 @@
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="10" t="str">
         <f>IF(OR(AND(F71&gt;1,F71&lt;&gt;"-")),"Can exchange","")</f>
@@ -3331,7 +3331,7 @@
       <c r="A76" s="15">
         <v>2021</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C76" s="11"/>
@@ -3430,7 +3430,7 @@
         <v>78</v>
       </c>
       <c r="F80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="10" t="str">
         <f>IF(OR(AND(F80&gt;1,F80&lt;&gt;"-")),"Can exchange","")</f>
@@ -3712,6 +3712,11 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94"/>
+      <c r="F94" s="1"/>
+      <c r="G94"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E2" xr:uid="{1F9C7DAA-01C4-4861-B3EA-F5AF89B42AE1}"/>
@@ -3733,7 +3738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11 F17 F19:F28 F39">
-    <cfRule type="containsText" dxfId="62" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3750,7 +3755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67 F77 F79 F89 F91">
-    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3767,7 +3772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="60" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3784,7 +3789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="59" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3801,7 +3806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="58" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3818,7 +3823,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="57" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3835,7 +3840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="56" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3852,7 +3857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="55" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3869,7 +3874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsText" dxfId="54" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3886,7 +3891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="53" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3903,7 +3908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F82 F84">
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3920,7 +3925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="51" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3937,7 +3942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="50" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3954,7 +3959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="49" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3971,7 +3976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="48" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3988,7 +3993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4005,7 +4010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="46" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4022,7 +4027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="45" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4039,7 +4044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="44" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4056,7 +4061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="43" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4073,7 +4078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81 F83">
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4090,7 +4095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4107,7 +4112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4124,7 +4129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F41">
-    <cfRule type="containsText" dxfId="39" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4141,7 +4146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="38" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4158,7 +4163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="37" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4175,7 +4180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4192,7 +4197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4209,7 +4214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4226,7 +4231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="33" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4243,7 +4248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="32" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4260,7 +4265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F46">
-    <cfRule type="containsText" dxfId="31" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4277,7 +4282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4294,7 +4299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4311,7 +4316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="28" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4328,7 +4333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4345,7 +4350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F63))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4362,7 +4367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4379,7 +4384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="24" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F68))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4396,7 +4401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="23" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4413,7 +4418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4430,7 +4435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4447,7 +4452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="20" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4464,7 +4469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4481,7 +4486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4498,7 +4503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4515,7 +4520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="16" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4532,7 +4537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4549,7 +4554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="14" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F61))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4566,7 +4571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="13" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4583,7 +4588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="12" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4600,7 +4605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4617,7 +4622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="10" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4634,7 +4639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78 F90 F92">
-    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4651,7 +4656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="8" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F69))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4668,7 +4673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4685,7 +4690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4702,7 +4707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4719,7 +4724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4736,7 +4741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F85))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Kazakhstan/#Kazakhstan#Commercial#[2004-present]#circulation_quality.xlsx
+++ b/Collections/Kazakhstan/#Kazakhstan#Commercial#[2004-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Kazakhstan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8AC727-60F1-49C3-851D-0EBE43F4501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903C32B-0013-4C87-B2F1-662425C9E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100тенге" sheetId="25" r:id="rId1"/>
@@ -743,486 +743,6 @@
   </cellStyles>
   <dxfs count="63">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1230,6 +750,486 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1252,9 +1252,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="61" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1560,10 +1560,10 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3044,7 +3044,7 @@
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="10" t="str">
         <f>IF(OR(AND(F63&gt;1,F63&lt;&gt;"-")),"Can exchange","")</f>
@@ -3066,7 +3066,7 @@
         <v>78</v>
       </c>
       <c r="F64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10" t="str">
         <f>IF(OR(AND(F64&gt;1,F64&lt;&gt;"-")),"Can exchange","")</f>
@@ -3202,7 +3202,7 @@
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="10" t="str">
         <f>IF(OR(AND(F70&gt;1,F70&lt;&gt;"-")),"Can exchange","")</f>
@@ -3274,7 +3274,7 @@
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="10" t="str">
         <f>IF(OR(AND(F73&gt;1,F73&lt;&gt;"-")),"Can exchange","")</f>
@@ -3342,7 +3342,7 @@
         <v>20</v>
       </c>
       <c r="F76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="10" t="str">
         <f>IF(OR(AND(F76&gt;1,F76&lt;&gt;"-")),"Can exchange","")</f>
@@ -3738,24 +3738,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11 F17 F19:F28 F39">
-    <cfRule type="containsText" dxfId="59" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F77 F67 F79 F89 F91">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F67 F77 F79 F89 F91">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67 F77 F79 F89 F91">
-    <cfRule type="containsText" dxfId="58" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3772,7 +3772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="57" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3789,7 +3789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="56" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3806,7 +3806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="55" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3823,7 +3823,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="54" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3840,7 +3840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="53" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3857,7 +3857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="52" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3874,7 +3874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsText" dxfId="51" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3891,11 +3891,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="50" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82 F80 F84">
+  <conditionalFormatting sqref="F80 F82 F84">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3908,7 +3908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F82 F84">
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3925,7 +3925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="48" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3942,7 +3942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="47" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3959,7 +3959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="46" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3976,7 +3976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="45" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3993,7 +3993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4010,7 +4010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="43" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4027,7 +4027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="42" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4044,7 +4044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="41" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4061,24 +4061,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="40" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F83 F81">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F81 F83">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81 F83">
-    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4095,7 +4095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4112,7 +4112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4129,7 +4129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F41">
-    <cfRule type="containsText" dxfId="36" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4146,7 +4146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="35" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4163,7 +4163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="34" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4180,7 +4180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4197,7 +4197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F87))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4214,7 +4214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F88))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4231,7 +4231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="30" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4248,7 +4248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="29" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4265,7 +4265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F46">
-    <cfRule type="containsText" dxfId="28" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4282,7 +4282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="27" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4299,7 +4299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="26" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4316,7 +4316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4333,7 +4333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4350,7 +4350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F63))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4367,7 +4367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="22" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4384,7 +4384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="21" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F68))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4401,7 +4401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4418,7 +4418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4435,7 +4435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="18" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4452,7 +4452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4469,7 +4469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="16" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4486,7 +4486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="15" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4503,7 +4503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="14" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4520,7 +4520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4537,7 +4537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="12" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4554,7 +4554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="11" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F61))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4571,7 +4571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="10" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4588,7 +4588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4605,7 +4605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4622,24 +4622,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="7" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F66))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F90 F78 F92">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F78 F90 F92">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78 F90 F92">
-    <cfRule type="containsText" dxfId="6" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4656,7 +4656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="5" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F69))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4673,7 +4673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="4" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4690,7 +4690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4707,7 +4707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="2" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4724,7 +4724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4741,7 +4741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F85))))</formula>
     </cfRule>
   </conditionalFormatting>
